--- a/output/LUY_KE_NGAY_HE_THONG.xlsx
+++ b/output/LUY_KE_NGAY_HE_THONG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU133"/>
+  <dimension ref="A1:AY134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,15 +656,35 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>properties.Dư nợ phát sinh.id</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Dư nợ phát sinh.type</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Dư nợ phát sinh.formula.type</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Dư nợ phát sinh.formula.number</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
           <t>properties.STT.id</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>properties.STT.type</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>properties.STT.title</t>
         </is>
@@ -678,17 +698,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>daa8de3a-ff76-447f-8245-aba8917006f2</t>
+          <t>706d4f2c-a2ec-4c18-a2c5-5935e3f1599c</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-06-30T09:10:00.000Z</t>
+          <t>2024-07-01T04:20:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +721,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-daa8de3aff76447f8245aba8917006f2</t>
+          <t>https://www.notion.so/1-706d4f2ca2ec4c18a2c55935e3f1599c</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -855,15 +875,33 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AX2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '1', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '1', 'href': None}]</t>
         </is>
@@ -877,17 +915,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>d77a665d-eebe-444c-b4cf-26b67b4604df</t>
+          <t>daa8de3a-ff76-447f-8245-aba8917006f2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-06-29T09:35:00.000Z</t>
+          <t>2024-06-30T09:10:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +938,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-d77a665deebe444cb4cf26b67b4604df</t>
+          <t>https://www.notion.so/2-daa8de3aff76447f8245aba8917006f2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1054,15 +1092,33 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '2', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '2', 'href': None}]</t>
         </is>
@@ -1076,17 +1132,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>551b8192-7e28-4d6d-b116-e2e40a5283c3</t>
+          <t>d77a665d-eebe-444c-b4cf-26b67b4604df</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-06-28T14:00:00.000Z</t>
+          <t>2024-06-29T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1155,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-551b81927e284d6db116e2e40a5283c3</t>
+          <t>https://www.notion.so/3-d77a665deebe444cb4cf26b67b4604df</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1253,15 +1309,33 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '3', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '3', 'href': None}]</t>
         </is>
@@ -1275,17 +1349,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5b3dd329-4293-42b5-80e0-1330f7e5d77b</t>
+          <t>551b8192-7e28-4d6d-b116-e2e40a5283c3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-27T05:19:00.000Z</t>
+          <t>2024-06-28T14:00:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1372,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-5b3dd329429342b580e01330f7e5d77b</t>
+          <t>https://www.notion.so/4-551b81927e284d6db116e2e40a5283c3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1452,15 +1526,33 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV5" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '4', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '4', 'href': None}]</t>
         </is>
@@ -1474,17 +1566,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>420881fe-5a64-41f5-83c7-4c39413c8d8d</t>
+          <t>5b3dd329-4293-42b5-80e0-1330f7e5d77b</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-27T05:19:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1589,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-420881fe5a6441f583c74c39413c8d8d</t>
+          <t>https://www.notion.so/5-5b3dd329429342b580e01330f7e5d77b</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1651,15 +1743,33 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV6" t="n">
+        <v>1498000</v>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AX6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU6" t="inlineStr">
+      <c r="AY6" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '5', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '5', 'href': None}]</t>
         </is>
@@ -1673,17 +1783,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>61c88664-13a8-48a3-b0c6-0c943ec81d24</t>
+          <t>420881fe-5a64-41f5-83c7-4c39413c8d8d</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-25T15:21:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1806,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-61c8866413a848a3b0c60c943ec81d24</t>
+          <t>https://www.notion.so/6-420881fe5a6441f583c74c39413c8d8d</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1850,15 +1960,33 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AX7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr">
+      <c r="AY7" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '6', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '6', 'href': None}]</t>
         </is>
@@ -1872,7 +2000,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3ffcb89f-55d1-477e-a58a-a80a3a054b47</t>
+          <t>61c88664-13a8-48a3-b0c6-0c943ec81d24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1882,7 +2010,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +2023,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-3ffcb89f55d1477ea58aa80a3a054b47</t>
+          <t>https://www.notion.so/7-61c8866413a848a3b0c60c943ec81d24</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2049,15 +2177,33 @@
       </c>
       <c r="AS8" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV8" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AX8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU8" t="inlineStr">
+      <c r="AY8" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '7', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '7', 'href': None}]</t>
         </is>
@@ -2071,17 +2217,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>646614a9-9864-4cdc-a72b-2283914acefd</t>
+          <t>3ffcb89f-55d1-477e-a58a-a80a3a054b47</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-25T15:18:00.000Z</t>
+          <t>2024-06-25T15:21:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2240,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-646614a998644cdca72b2283914acefd</t>
+          <t>https://www.notion.so/8-3ffcb89f55d1477ea58aa80a3a054b47</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2248,15 +2394,33 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV9" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr">
+      <c r="AX9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU9" t="inlineStr">
+      <c r="AY9" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '8', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '8', 'href': None}]</t>
         </is>
@@ -2270,17 +2434,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>e25ff82f-b3c8-4162-94da-26962c577e6f</t>
+          <t>646614a9-9864-4cdc-a72b-2283914acefd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-25T09:40:00.000Z</t>
+          <t>2024-06-25T15:18:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2457,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-e25ff82fb3c8416294da26962c577e6f</t>
+          <t>https://www.notion.so/9-646614a998644cdca72b2283914acefd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2447,15 +2611,33 @@
       </c>
       <c r="AS10" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV10" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AX10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr">
+      <c r="AY10" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '9', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '9', 'href': None}]</t>
         </is>
@@ -2469,17 +2651,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2e4df6af-ce7f-438e-9d21-8b42888787d8</t>
+          <t>e25ff82f-b3c8-4162-94da-26962c577e6f</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-06-25T09:39:00.000Z</t>
+          <t>2024-06-25T09:40:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2674,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-2e4df6afce7f438e9d218b42888787d8</t>
+          <t>https://www.notion.so/10-e25ff82fb3c8416294da26962c577e6f</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2646,15 +2828,33 @@
       </c>
       <c r="AS11" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV11" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AX11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr">
+      <c r="AY11" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '10', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '10', 'href': None}]</t>
         </is>
@@ -2668,17 +2868,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>b344bc3e-71f3-43e5-a7c8-a845ae0c8270</t>
+          <t>2e4df6af-ce7f-438e-9d21-8b42888787d8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-06-25T03:13:00.000Z</t>
+          <t>2024-06-25T09:39:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2891,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-b344bc3e71f343e5a7c8a845ae0c8270</t>
+          <t>https://www.notion.so/11-2e4df6afce7f438e9d218b42888787d8</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2845,15 +3045,33 @@
       </c>
       <c r="AS12" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV12" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AX12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr">
+      <c r="AY12" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '11', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '11', 'href': None}]</t>
         </is>
@@ -2867,7 +3085,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>796b1251-3d1b-4215-8601-eaff4e7c9b68</t>
+          <t>b344bc3e-71f3-43e5-a7c8-a845ae0c8270</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2877,7 +3095,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +3108,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-796b12513d1b42158601eaff4e7c9b68</t>
+          <t>https://www.notion.so/12-b344bc3e71f343e5a7c8a845ae0c8270</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3044,15 +3262,33 @@
       </c>
       <c r="AS13" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr">
+      <c r="AX13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU13" t="inlineStr">
+      <c r="AY13" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '12', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '12', 'href': None}]</t>
         </is>
@@ -3066,7 +3302,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2dbf23bc-96b5-4c45-a032-449de4fc6c2a</t>
+          <t>796b1251-3d1b-4215-8601-eaff4e7c9b68</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3076,7 +3312,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3325,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-2dbf23bc96b54c45a032449de4fc6c2a</t>
+          <t>https://www.notion.so/13-796b12513d1b42158601eaff4e7c9b68</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3243,15 +3479,33 @@
       </c>
       <c r="AS14" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV14" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AX14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr">
+      <c r="AY14" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '13', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '13', 'href': None}]</t>
         </is>
@@ -3265,7 +3519,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>fb9c5676-a808-4dc6-bd44-e309dbce5fa5</t>
+          <t>2dbf23bc-96b5-4c45-a032-449de4fc6c2a</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3275,7 +3529,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3542,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-fb9c5676a8084dc6bd44e309dbce5fa5</t>
+          <t>https://www.notion.so/14-2dbf23bc96b54c45a032449de4fc6c2a</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3442,15 +3696,33 @@
       </c>
       <c r="AS15" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV15" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
+      <c r="AX15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr">
+      <c r="AY15" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '14', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '14', 'href': None}]</t>
         </is>
@@ -3464,17 +3736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7add5d63-cce1-4eac-b365-f50e7e00b6cc</t>
+          <t>fb9c5676-a808-4dc6-bd44-e309dbce5fa5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-06-25T03:05:00.000Z</t>
+          <t>2024-06-25T03:13:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3759,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-7add5d63cce14eacb365f50e7e00b6cc</t>
+          <t>https://www.notion.so/15-fb9c5676a8084dc6bd44e309dbce5fa5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3641,15 +3913,33 @@
       </c>
       <c r="AS16" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AX16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr">
+      <c r="AY16" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '15', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '15', 'href': None}]</t>
         </is>
@@ -3663,7 +3953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>df53934a-e5df-452d-9863-bf6f9fab085a</t>
+          <t>7add5d63-cce1-4eac-b365-f50e7e00b6cc</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3673,7 +3963,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3976,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-df53934ae5df452d9863bf6f9fab085a</t>
+          <t>https://www.notion.so/16-7add5d63cce14eacb365f50e7e00b6cc</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3840,15 +4130,33 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV17" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr">
+      <c r="AX17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU17" t="inlineStr">
+      <c r="AY17" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '16', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '16', 'href': None}]</t>
         </is>
@@ -3862,7 +4170,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0aed403a-3958-4747-8783-e2f73cd45ddf</t>
+          <t>df53934a-e5df-452d-9863-bf6f9fab085a</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3872,7 +4180,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +4193,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-0aed403a395847478783e2f73cd45ddf</t>
+          <t>https://www.notion.so/17-df53934ae5df452d9863bf6f9fab085a</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4039,15 +4347,33 @@
       </c>
       <c r="AS18" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AX18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr">
+      <c r="AY18" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '17', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '17', 'href': None}]</t>
         </is>
@@ -4061,7 +4387,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>a16a55af-6817-4200-bc41-0f5dcc98fe8b</t>
+          <t>0aed403a-3958-4747-8783-e2f73cd45ddf</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4071,7 +4397,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4410,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-a16a55af68174200bc410f5dcc98fe8b</t>
+          <t>https://www.notion.so/18-0aed403a395847478783e2f73cd45ddf</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4238,15 +4564,33 @@
       </c>
       <c r="AS19" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV19" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
+      <c r="AX19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr">
+      <c r="AY19" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '18', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '18', 'href': None}]</t>
         </is>
@@ -4260,7 +4604,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bf91e048-d329-45d1-a14b-095345a737bf</t>
+          <t>a16a55af-6817-4200-bc41-0f5dcc98fe8b</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4270,7 +4614,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4627,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-bf91e048d32945d1a14b095345a737bf</t>
+          <t>https://www.notion.so/19-a16a55af68174200bc410f5dcc98fe8b</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4437,15 +4781,33 @@
       </c>
       <c r="AS20" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV20" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AX20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU20" t="inlineStr">
+      <c r="AY20" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '19', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '19', 'href': None}]</t>
         </is>
@@ -4459,17 +4821,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ceda31bf-563b-49de-b855-66a69556885b</t>
+          <t>bf91e048-d329-45d1-a14b-095345a737bf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-25T02:57:00.000Z</t>
+          <t>2024-06-25T03:05:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4844,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-ceda31bf563b49deb85566a69556885b</t>
+          <t>https://www.notion.so/20-bf91e048d32945d1a14b095345a737bf</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4636,15 +4998,33 @@
       </c>
       <c r="AS21" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV21" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AX21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr">
+      <c r="AY21" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '20', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '20', 'href': None}]</t>
         </is>
@@ -4658,17 +5038,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>e5fa84a6-7667-4817-a52c-04e5e9d9df48</t>
+          <t>ceda31bf-563b-49de-b855-66a69556885b</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-25T01:56:00.000Z</t>
+          <t>2024-06-25T02:57:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +5061,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-e5fa84a676674817a52c04e5e9d9df48</t>
+          <t>https://www.notion.so/21-ceda31bf563b49deb85566a69556885b</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4835,15 +5215,33 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
+      <c r="AX22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU22" t="inlineStr">
+      <c r="AY22" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '21', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '21', 'href': None}]</t>
         </is>
@@ -4857,7 +5255,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3cc93476-770c-4fc5-8fb7-bf19e4366bc4</t>
+          <t>e5fa84a6-7667-4817-a52c-04e5e9d9df48</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4867,7 +5265,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +5278,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-3cc93476770c4fc58fb7bf19e4366bc4</t>
+          <t>https://www.notion.so/22-e5fa84a676674817a52c04e5e9d9df48</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5034,15 +5432,33 @@
       </c>
       <c r="AS23" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AX23" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU23" t="inlineStr">
+      <c r="AY23" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '22', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '22', 'href': None}]</t>
         </is>
@@ -5056,7 +5472,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0c1b1ed1-b38c-4740-a6b0-aa5e306bc997</t>
+          <t>3cc93476-770c-4fc5-8fb7-bf19e4366bc4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5066,7 +5482,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5495,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-0c1b1ed1b38c4740a6b0aa5e306bc997</t>
+          <t>https://www.notion.so/23-3cc93476770c4fc58fb7bf19e4366bc4</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5233,15 +5649,33 @@
       </c>
       <c r="AS24" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr">
+      <c r="AX24" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU24" t="inlineStr">
+      <c r="AY24" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '23', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '23', 'href': None}]</t>
         </is>
@@ -5255,7 +5689,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>86ae44bf-42e6-4c7f-8b13-fa13cb822124</t>
+          <t>0c1b1ed1-b38c-4740-a6b0-aa5e306bc997</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5265,7 +5699,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5712,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-86ae44bf42e64c7f8b13fa13cb822124</t>
+          <t>https://www.notion.so/24-0c1b1ed1b38c4740a6b0aa5e306bc997</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5432,15 +5866,33 @@
       </c>
       <c r="AS25" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV25" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AX25" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU25" t="inlineStr">
+      <c r="AY25" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '24', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '24', 'href': None}]</t>
         </is>
@@ -5454,7 +5906,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>c97267f7-485c-4680-8a95-6bcb55a38d89</t>
+          <t>86ae44bf-42e6-4c7f-8b13-fa13cb822124</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5916,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5929,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-c97267f7485c46808a956bcb55a38d89</t>
+          <t>https://www.notion.so/25-86ae44bf42e64c7f8b13fa13cb822124</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5631,15 +6083,33 @@
       </c>
       <c r="AS26" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT26" t="inlineStr">
+      <c r="AX26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU26" t="inlineStr">
+      <c r="AY26" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '25', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '25', 'href': None}]</t>
         </is>
@@ -5653,7 +6123,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8153333a-011b-4919-820f-d1f2f6dbbf5e</t>
+          <t>c97267f7-485c-4680-8a95-6bcb55a38d89</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +6133,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +6146,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-8153333a011b4919820fd1f2f6dbbf5e</t>
+          <t>https://www.notion.so/26-c97267f7485c46808a956bcb55a38d89</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5830,15 +6300,33 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT27" t="inlineStr">
+      <c r="AX27" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU27" t="inlineStr">
+      <c r="AY27" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '26', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '26', 'href': None}]</t>
         </is>
@@ -5852,7 +6340,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8de44170-ec9c-4bcc-8a82-2fc568a0a386</t>
+          <t>8153333a-011b-4919-820f-d1f2f6dbbf5e</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +6350,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +6363,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-8de44170ec9c4bcc8a822fc568a0a386</t>
+          <t>https://www.notion.so/27-8153333a011b4919820fd1f2f6dbbf5e</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6029,15 +6517,33 @@
       </c>
       <c r="AS28" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV28" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT28" t="inlineStr">
+      <c r="AX28" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU28" t="inlineStr">
+      <c r="AY28" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '27', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '27', 'href': None}]</t>
         </is>
@@ -6051,7 +6557,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>91e54e88-ea6e-4842-81dd-e151ce52dc9d</t>
+          <t>8de44170-ec9c-4bcc-8a82-2fc568a0a386</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6567,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6580,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-91e54e88ea6e484281dde151ce52dc9d</t>
+          <t>https://www.notion.so/28-8de44170ec9c4bcc8a822fc568a0a386</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6228,15 +6734,33 @@
       </c>
       <c r="AS29" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT29" t="inlineStr">
+      <c r="AX29" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU29" t="inlineStr">
+      <c r="AY29" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '28', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '28', 'href': None}]</t>
         </is>
@@ -6250,7 +6774,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1915e040-0fa9-45a5-b113-a9c400d8a035</t>
+          <t>91e54e88-ea6e-4842-81dd-e151ce52dc9d</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6784,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6797,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-1915e0400fa945a5b113a9c400d8a035</t>
+          <t>https://www.notion.so/29-91e54e88ea6e484281dde151ce52dc9d</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6427,15 +6951,33 @@
       </c>
       <c r="AS30" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV30" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT30" t="inlineStr">
+      <c r="AX30" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU30" t="inlineStr">
+      <c r="AY30" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '29', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '29', 'href': None}]</t>
         </is>
@@ -6449,7 +6991,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9601e83d-fa3c-4426-9d40-3c91776cd0a5</t>
+          <t>1915e040-0fa9-45a5-b113-a9c400d8a035</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +7001,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +7014,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-9601e83dfa3c44269d403c91776cd0a5</t>
+          <t>https://www.notion.so/30-1915e0400fa945a5b113a9c400d8a035</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6626,15 +7168,33 @@
       </c>
       <c r="AS31" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV31" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT31" t="inlineStr">
+      <c r="AX31" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU31" t="inlineStr">
+      <c r="AY31" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '30', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '30', 'href': None}]</t>
         </is>
@@ -6648,17 +7208,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>600a3c5b-b714-40ea-91a4-c53230e174a4</t>
+          <t>9601e83d-fa3c-4426-9d40-3c91776cd0a5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-06-25T01:55:00.000Z</t>
+          <t>2024-06-25T01:56:00.000Z</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +7231,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-600a3c5bb71440ea91a4c53230e174a4</t>
+          <t>https://www.notion.so/31-9601e83dfa3c44269d403c91776cd0a5</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6825,15 +7385,33 @@
       </c>
       <c r="AS32" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU32" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT32" t="inlineStr">
+      <c r="AX32" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU32" t="inlineStr">
+      <c r="AY32" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '31', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '31', 'href': None}]</t>
         </is>
@@ -6847,7 +7425,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0819d336-e046-4aa9-a68c-74d8734f111b</t>
+          <t>600a3c5b-b714-40ea-91a4-c53230e174a4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +7435,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +7448,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-0819d336e0464aa9a68c74d8734f111b</t>
+          <t>https://www.notion.so/32-600a3c5bb71440ea91a4c53230e174a4</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7024,15 +7602,33 @@
       </c>
       <c r="AS33" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV33" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT33" t="inlineStr">
+      <c r="AX33" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU33" t="inlineStr">
+      <c r="AY33" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '32', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '32', 'href': None}]</t>
         </is>
@@ -7046,7 +7642,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>f6c48f5e-2ea1-4442-994d-00dd050d7573</t>
+          <t>0819d336-e046-4aa9-a68c-74d8734f111b</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7652,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7665,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-f6c48f5e2ea14442994d00dd050d7573</t>
+          <t>https://www.notion.so/33-0819d336e0464aa9a68c74d8734f111b</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7223,15 +7819,33 @@
       </c>
       <c r="AS34" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV34" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="AW34" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT34" t="inlineStr">
+      <c r="AX34" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU34" t="inlineStr">
+      <c r="AY34" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '33', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '33', 'href': None}]</t>
         </is>
@@ -7245,7 +7859,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>fea89f72-9297-429c-872e-5f22167f0ddd</t>
+          <t>f6c48f5e-2ea1-4442-994d-00dd050d7573</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7869,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7882,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-fea89f729297429c872e5f22167f0ddd</t>
+          <t>https://www.notion.so/34-f6c48f5e2ea14442994d00dd050d7573</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7422,15 +8036,33 @@
       </c>
       <c r="AS35" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU35" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV35" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT35" t="inlineStr">
+      <c r="AX35" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU35" t="inlineStr">
+      <c r="AY35" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '34', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '34', 'href': None}]</t>
         </is>
@@ -7444,7 +8076,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>415678f2-6740-428a-b0ff-ac64f3b76690</t>
+          <t>fea89f72-9297-429c-872e-5f22167f0ddd</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +8086,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +8099,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-415678f26740428ab0ffac64f3b76690</t>
+          <t>https://www.notion.so/35-fea89f729297429c872e5f22167f0ddd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7621,15 +8253,33 @@
       </c>
       <c r="AS36" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU36" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV36" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT36" t="inlineStr">
+      <c r="AX36" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU36" t="inlineStr">
+      <c r="AY36" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '35', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '35', 'href': None}]</t>
         </is>
@@ -7643,7 +8293,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ef8d636c-57ef-4df9-b102-21ff62a18e37</t>
+          <t>415678f2-6740-428a-b0ff-ac64f3b76690</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +8303,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +8316,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-ef8d636c57ef4df9b10221ff62a18e37</t>
+          <t>https://www.notion.so/36-415678f26740428ab0ffac64f3b76690</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7820,15 +8470,33 @@
       </c>
       <c r="AS37" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU37" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV37" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="AW37" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT37" t="inlineStr">
+      <c r="AX37" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU37" t="inlineStr">
+      <c r="AY37" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '36', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '36', 'href': None}]</t>
         </is>
@@ -7842,17 +8510,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9dd551e6-e5cf-4813-b4ab-304e4734155a</t>
+          <t>ef8d636c-57ef-4df9-b102-21ff62a18e37</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-06-25T01:43:00.000Z</t>
+          <t>2024-06-25T01:55:00.000Z</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +8533,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-9dd551e6e5cf4813b4ab304e4734155a</t>
+          <t>https://www.notion.so/37-ef8d636c57ef4df9b10221ff62a18e37</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8019,15 +8687,33 @@
       </c>
       <c r="AS38" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV38" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT38" t="inlineStr">
+      <c r="AX38" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU38" t="inlineStr">
+      <c r="AY38" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '37', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '37', 'href': None}]</t>
         </is>
@@ -8041,7 +8727,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>488babcc-5d0a-452d-a424-45df5507a6e3</t>
+          <t>9dd551e6-e5cf-4813-b4ab-304e4734155a</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8737,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8750,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-488babcc5d0a452da42445df5507a6e3</t>
+          <t>https://www.notion.so/38-9dd551e6e5cf4813b4ab304e4734155a</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8218,15 +8904,33 @@
       </c>
       <c r="AS39" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU39" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV39" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AW39" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT39" t="inlineStr">
+      <c r="AX39" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU39" t="inlineStr">
+      <c r="AY39" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '38', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '38', 'href': None}]</t>
         </is>
@@ -8240,7 +8944,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>e9dbc2c7-a16d-43de-bad1-264d033dd2f3</t>
+          <t>488babcc-5d0a-452d-a424-45df5507a6e3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8954,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8967,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-e9dbc2c7a16d43debad1264d033dd2f3</t>
+          <t>https://www.notion.so/39-488babcc5d0a452da42445df5507a6e3</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8417,15 +9121,33 @@
       </c>
       <c r="AS40" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV40" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT40" t="inlineStr">
+      <c r="AX40" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU40" t="inlineStr">
+      <c r="AY40" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '39', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '39', 'href': None}]</t>
         </is>
@@ -8439,7 +9161,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>be62e55e-9269-4581-a2f7-4dd68fe99cbd</t>
+          <t>e9dbc2c7-a16d-43de-bad1-264d033dd2f3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +9171,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +9184,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-be62e55e92694581a2f74dd68fe99cbd</t>
+          <t>https://www.notion.so/40-e9dbc2c7a16d43debad1264d033dd2f3</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8616,15 +9338,33 @@
       </c>
       <c r="AS41" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV41" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT41" t="inlineStr">
+      <c r="AX41" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU41" t="inlineStr">
+      <c r="AY41" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '40', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '40', 'href': None}]</t>
         </is>
@@ -8638,17 +9378,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>d9c1e1c3-0688-425c-8f9b-6606145353b9</t>
+          <t>be62e55e-9269-4581-a2f7-4dd68fe99cbd</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-06-24T17:12:00.000Z</t>
+          <t>2024-06-25T01:43:00.000Z</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +9401,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-d9c1e1c30688425c8f9b6606145353b9</t>
+          <t>https://www.notion.so/41-be62e55e92694581a2f74dd68fe99cbd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8815,15 +9555,33 @@
       </c>
       <c r="AS42" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT42" t="inlineStr">
+      <c r="AX42" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU42" t="inlineStr">
+      <c r="AY42" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '41', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '41', 'href': None}]</t>
         </is>
@@ -8837,7 +9595,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1b7af46b-d075-4d07-8e3d-34b70d11ed6a</t>
+          <t>d9c1e1c3-0688-425c-8f9b-6606145353b9</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +9605,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +9618,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-1b7af46bd0754d078e3d34b70d11ed6a</t>
+          <t>https://www.notion.so/42-d9c1e1c30688425c8f9b6606145353b9</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9014,15 +9772,33 @@
       </c>
       <c r="AS43" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU43" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV43" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="AW43" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT43" t="inlineStr">
+      <c r="AX43" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU43" t="inlineStr">
+      <c r="AY43" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '42', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '42', 'href': None}]</t>
         </is>
@@ -9036,7 +9812,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>05ea37ab-6a1f-4b85-8cf7-3837087e14c6</t>
+          <t>1b7af46b-d075-4d07-8e3d-34b70d11ed6a</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9822,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9835,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-05ea37ab6a1f4b858cf73837087e14c6</t>
+          <t>https://www.notion.so/43-1b7af46bd0754d078e3d34b70d11ed6a</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9213,15 +9989,33 @@
       </c>
       <c r="AS44" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU44" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV44" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT44" t="inlineStr">
+      <c r="AX44" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU44" t="inlineStr">
+      <c r="AY44" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '43', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '43', 'href': None}]</t>
         </is>
@@ -9235,7 +10029,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>f9b6d9fb-9f0b-4c27-850a-3096e797aada</t>
+          <t>05ea37ab-6a1f-4b85-8cf7-3837087e14c6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +10039,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +10052,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-f9b6d9fb9f0b4c27850a3096e797aada</t>
+          <t>https://www.notion.so/44-05ea37ab6a1f4b858cf73837087e14c6</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9412,15 +10206,33 @@
       </c>
       <c r="AS45" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV45" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="AW45" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT45" t="inlineStr">
+      <c r="AX45" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU45" t="inlineStr">
+      <c r="AY45" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '44', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '44', 'href': None}]</t>
         </is>
@@ -9434,7 +10246,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>b91a1bc1-abbc-41ae-8f1c-5115ed8c076b</t>
+          <t>f9b6d9fb-9f0b-4c27-850a-3096e797aada</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +10256,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +10269,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-b91a1bc1abbc41ae8f1c5115ed8c076b</t>
+          <t>https://www.notion.so/45-f9b6d9fb9f0b4c27850a3096e797aada</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9611,15 +10423,33 @@
       </c>
       <c r="AS46" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU46" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV46" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="AW46" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT46" t="inlineStr">
+      <c r="AX46" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU46" t="inlineStr">
+      <c r="AY46" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '45', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '45', 'href': None}]</t>
         </is>
@@ -9633,7 +10463,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>09553ce9-1ae1-4156-a6f7-c239654c7847</t>
+          <t>b91a1bc1-abbc-41ae-8f1c-5115ed8c076b</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +10473,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +10486,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-09553ce91ae14156a6f7c239654c7847</t>
+          <t>https://www.notion.so/46-b91a1bc1abbc41ae8f1c5115ed8c076b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9810,15 +10640,33 @@
       </c>
       <c r="AS47" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV47" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="AW47" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT47" t="inlineStr">
+      <c r="AX47" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU47" t="inlineStr">
+      <c r="AY47" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '46', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '46', 'href': None}]</t>
         </is>
@@ -9832,7 +10680,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>b1e72825-b8ab-4bba-a7ec-36a8010b9d53</t>
+          <t>09553ce9-1ae1-4156-a6f7-c239654c7847</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +10690,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +10703,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-b1e72825b8ab4bbaa7ec36a8010b9d53</t>
+          <t>https://www.notion.so/47-09553ce91ae14156a6f7c239654c7847</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10009,15 +10857,33 @@
       </c>
       <c r="AS48" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU48" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT48" t="inlineStr">
+      <c r="AX48" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU48" t="inlineStr">
+      <c r="AY48" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '47', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '47', 'href': None}]</t>
         </is>
@@ -10031,7 +10897,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>c992cc9b-e4a4-42bf-9292-ecbf3d444afb</t>
+          <t>b1e72825-b8ab-4bba-a7ec-36a8010b9d53</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10907,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10920,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-c992cc9be4a442bf9292ecbf3d444afb</t>
+          <t>https://www.notion.so/48-b1e72825b8ab4bbaa7ec36a8010b9d53</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10208,15 +11074,33 @@
       </c>
       <c r="AS49" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU49" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV49" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW49" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT49" t="inlineStr">
+      <c r="AX49" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU49" t="inlineStr">
+      <c r="AY49" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '48', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '48', 'href': None}]</t>
         </is>
@@ -10230,7 +11114,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1f293830-720a-47e6-8684-dc7441d8c647</t>
+          <t>c992cc9b-e4a4-42bf-9292-ecbf3d444afb</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +11124,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +11137,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-1f293830720a47e68684dc7441d8c647</t>
+          <t>https://www.notion.so/49-c992cc9be4a442bf9292ecbf3d444afb</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10407,15 +11291,33 @@
       </c>
       <c r="AS50" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU50" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV50" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW50" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT50" t="inlineStr">
+      <c r="AX50" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU50" t="inlineStr">
+      <c r="AY50" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '49', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '49', 'href': None}]</t>
         </is>
@@ -10429,7 +11331,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>09c4941f-1337-4ff6-8d2d-fd350249ff4f</t>
+          <t>1f293830-720a-47e6-8684-dc7441d8c647</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +11341,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +11354,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-09c4941f13374ff68d2dfd350249ff4f</t>
+          <t>https://www.notion.so/50-1f293830720a47e68684dc7441d8c647</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10606,15 +11508,33 @@
       </c>
       <c r="AS51" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU51" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV51" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AW51" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT51" t="inlineStr">
+      <c r="AX51" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU51" t="inlineStr">
+      <c r="AY51" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '50', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '50', 'href': None}]</t>
         </is>
@@ -10628,7 +11548,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>13a3ba95-1ecd-47ab-b5a7-8505067eb7f4</t>
+          <t>09c4941f-1337-4ff6-8d2d-fd350249ff4f</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +11558,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +11571,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-13a3ba951ecd47abb5a78505067eb7f4</t>
+          <t>https://www.notion.so/51-09c4941f13374ff68d2dfd350249ff4f</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10805,15 +11725,33 @@
       </c>
       <c r="AS52" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU52" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT52" t="inlineStr">
+      <c r="AX52" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU52" t="inlineStr">
+      <c r="AY52" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '51', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '51', 'href': None}]</t>
         </is>
@@ -10827,7 +11765,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>76c25655-8bdf-4a36-9366-de1af3abbd59</t>
+          <t>13a3ba95-1ecd-47ab-b5a7-8505067eb7f4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +11775,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +11788,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-76c256558bdf4a369366de1af3abbd59</t>
+          <t>https://www.notion.so/52-13a3ba951ecd47abb5a78505067eb7f4</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11004,15 +11942,33 @@
       </c>
       <c r="AS53" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU53" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV53" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW53" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT53" t="inlineStr">
+      <c r="AX53" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU53" t="inlineStr">
+      <c r="AY53" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '52', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '52', 'href': None}]</t>
         </is>
@@ -11026,7 +11982,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2d16cd2a-d3f6-4614-a322-95c0ff2e1932</t>
+          <t>76c25655-8bdf-4a36-9366-de1af3abbd59</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11992,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +12005,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-2d16cd2ad3f64614a32295c0ff2e1932</t>
+          <t>https://www.notion.so/53-76c256558bdf4a369366de1af3abbd59</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11203,15 +12159,33 @@
       </c>
       <c r="AS54" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU54" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT54" t="inlineStr">
+      <c r="AX54" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU54" t="inlineStr">
+      <c r="AY54" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '53', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '53', 'href': None}]</t>
         </is>
@@ -11225,7 +12199,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2b907fc2-cb5f-4e57-b12f-96529f925caa</t>
+          <t>2d16cd2a-d3f6-4614-a322-95c0ff2e1932</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +12209,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +12222,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-2b907fc2cb5f4e57b12f96529f925caa</t>
+          <t>https://www.notion.so/54-2d16cd2ad3f64614a32295c0ff2e1932</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11402,15 +12376,33 @@
       </c>
       <c r="AS55" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU55" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV55" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AW55" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT55" t="inlineStr">
+      <c r="AX55" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU55" t="inlineStr">
+      <c r="AY55" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '54', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '54', 'href': None}]</t>
         </is>
@@ -11424,7 +12416,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>b010dadd-e399-4352-9046-d832559a9b9d</t>
+          <t>2b907fc2-cb5f-4e57-b12f-96529f925caa</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +12426,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +12439,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-b010dadde39943529046d832559a9b9d</t>
+          <t>https://www.notion.so/55-2b907fc2cb5f4e57b12f96529f925caa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11601,15 +12593,33 @@
       </c>
       <c r="AS56" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU56" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW56" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT56" t="inlineStr">
+      <c r="AX56" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU56" t="inlineStr">
+      <c r="AY56" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '55', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '55', 'href': None}]</t>
         </is>
@@ -11623,7 +12633,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1e19c8a8-2d9a-4e80-9ca0-a34294dd3f99</t>
+          <t>b010dadd-e399-4352-9046-d832559a9b9d</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +12643,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +12656,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-1e19c8a82d9a4e809ca0a34294dd3f99</t>
+          <t>https://www.notion.so/56-b010dadde39943529046d832559a9b9d</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11800,15 +12810,33 @@
       </c>
       <c r="AS57" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU57" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW57" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT57" t="inlineStr">
+      <c r="AX57" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU57" t="inlineStr">
+      <c r="AY57" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '56', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '56', 'href': None}]</t>
         </is>
@@ -11822,7 +12850,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>9e8c94d1-45de-4a0c-8bb4-5a3ef8033f59</t>
+          <t>1e19c8a8-2d9a-4e80-9ca0-a34294dd3f99</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +12860,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +12873,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-9e8c94d145de4a0c8bb45a3ef8033f59</t>
+          <t>https://www.notion.so/57-1e19c8a82d9a4e809ca0a34294dd3f99</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -11999,15 +13027,33 @@
       </c>
       <c r="AS58" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU58" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV58" t="n">
+        <v>36900000</v>
+      </c>
+      <c r="AW58" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT58" t="inlineStr">
+      <c r="AX58" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU58" t="inlineStr">
+      <c r="AY58" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '57', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '57', 'href': None}]</t>
         </is>
@@ -12021,7 +13067,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>e3af674b-0930-46bb-9565-45f139657c05</t>
+          <t>9e8c94d1-45de-4a0c-8bb4-5a3ef8033f59</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +13077,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +13090,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-e3af674b093046bb956545f139657c05</t>
+          <t>https://www.notion.so/58-9e8c94d145de4a0c8bb45a3ef8033f59</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12198,15 +13244,33 @@
       </c>
       <c r="AS59" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU59" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV59" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="AW59" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT59" t="inlineStr">
+      <c r="AX59" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU59" t="inlineStr">
+      <c r="AY59" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '58', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '58', 'href': None}]</t>
         </is>
@@ -12220,7 +13284,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5a5cefea-cbd8-41cd-b5d0-dcd547274de9</t>
+          <t>e3af674b-0930-46bb-9565-45f139657c05</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +13294,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +13307,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-5a5cefeacbd841cdb5d0dcd547274de9</t>
+          <t>https://www.notion.so/59-e3af674b093046bb956545f139657c05</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12397,15 +13461,33 @@
       </c>
       <c r="AS60" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU60" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW60" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT60" t="inlineStr">
+      <c r="AX60" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU60" t="inlineStr">
+      <c r="AY60" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '59', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '59', 'href': None}]</t>
         </is>
@@ -12419,7 +13501,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>e233f83e-f2c2-459e-9f08-05051fbdc257</t>
+          <t>5a5cefea-cbd8-41cd-b5d0-dcd547274de9</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +13511,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +13524,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-e233f83ef2c2459e9f0805051fbdc257</t>
+          <t>https://www.notion.so/60-5a5cefeacbd841cdb5d0dcd547274de9</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12596,15 +13678,33 @@
       </c>
       <c r="AS61" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU61" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW61" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT61" t="inlineStr">
+      <c r="AX61" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU61" t="inlineStr">
+      <c r="AY61" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '60', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '60', 'href': None}]</t>
         </is>
@@ -12618,7 +13718,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>58142be4-00ee-435f-ac0a-dd0be7b6bbeb</t>
+          <t>e233f83e-f2c2-459e-9f08-05051fbdc257</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +13728,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +13741,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-58142be400ee435fac0add0be7b6bbeb</t>
+          <t>https://www.notion.so/61-e233f83ef2c2459e9f0805051fbdc257</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12795,15 +13895,33 @@
       </c>
       <c r="AS62" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU62" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV62" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="AW62" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT62" t="inlineStr">
+      <c r="AX62" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU62" t="inlineStr">
+      <c r="AY62" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '61', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '61', 'href': None}]</t>
         </is>
@@ -12817,7 +13935,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>427b861d-7917-4e7f-8db6-7da3b3cf80a6</t>
+          <t>58142be4-00ee-435f-ac0a-dd0be7b6bbeb</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +13945,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +13958,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-427b861d79174e7f8db67da3b3cf80a6</t>
+          <t>https://www.notion.so/62-58142be400ee435fac0add0be7b6bbeb</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -12994,15 +14112,33 @@
       </c>
       <c r="AS63" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU63" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV63" t="n">
+        <v>47000000</v>
+      </c>
+      <c r="AW63" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT63" t="inlineStr">
+      <c r="AX63" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU63" t="inlineStr">
+      <c r="AY63" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '62', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '62', 'href': None}]</t>
         </is>
@@ -13016,7 +14152,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>11fb8060-280e-45f4-867c-fe5bd15411a0</t>
+          <t>427b861d-7917-4e7f-8db6-7da3b3cf80a6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +14162,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +14175,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-11fb8060280e45f4867cfe5bd15411a0</t>
+          <t>https://www.notion.so/63-427b861d79174e7f8db67da3b3cf80a6</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13193,15 +14329,33 @@
       </c>
       <c r="AS64" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU64" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW64" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT64" t="inlineStr">
+      <c r="AX64" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU64" t="inlineStr">
+      <c r="AY64" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '63', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '63', 'href': None}]</t>
         </is>
@@ -13215,7 +14369,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8122a3bb-6764-4ab7-b787-84f3f2ca87ee</t>
+          <t>11fb8060-280e-45f4-867c-fe5bd15411a0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +14379,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +14392,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-8122a3bb67644ab7b78784f3f2ca87ee</t>
+          <t>https://www.notion.so/64-11fb8060280e45f4867cfe5bd15411a0</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13392,15 +14546,33 @@
       </c>
       <c r="AS65" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU65" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW65" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT65" t="inlineStr">
+      <c r="AX65" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU65" t="inlineStr">
+      <c r="AY65" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '64', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '64', 'href': None}]</t>
         </is>
@@ -13414,7 +14586,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>b4c2d49b-afb7-407b-bde0-f0f73f20353a</t>
+          <t>8122a3bb-6764-4ab7-b787-84f3f2ca87ee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +14596,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +14609,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-b4c2d49bafb7407bbde0f0f73f20353a</t>
+          <t>https://www.notion.so/65-8122a3bb67644ab7b78784f3f2ca87ee</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13591,15 +14763,33 @@
       </c>
       <c r="AS66" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU66" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW66" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT66" t="inlineStr">
+      <c r="AX66" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU66" t="inlineStr">
+      <c r="AY66" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '65', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '65', 'href': None}]</t>
         </is>
@@ -13613,7 +14803,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>041df600-3403-42b8-bd0c-a5d61e0f2214</t>
+          <t>b4c2d49b-afb7-407b-bde0-f0f73f20353a</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +14813,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +14826,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-041df600340342b8bd0ca5d61e0f2214</t>
+          <t>https://www.notion.so/66-b4c2d49bafb7407bbde0f0f73f20353a</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13790,15 +14980,33 @@
       </c>
       <c r="AS67" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU67" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW67" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT67" t="inlineStr">
+      <c r="AX67" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU67" t="inlineStr">
+      <c r="AY67" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '66', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '66', 'href': None}]</t>
         </is>
@@ -13812,7 +15020,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>35d891f2-1f92-42ed-b02a-0ac30333cedf</t>
+          <t>041df600-3403-42b8-bd0c-a5d61e0f2214</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +15030,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +15043,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-35d891f21f9242edb02a0ac30333cedf</t>
+          <t>https://www.notion.so/67-041df600340342b8bd0ca5d61e0f2214</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -13989,15 +15197,33 @@
       </c>
       <c r="AS68" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU68" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV68" t="n">
+        <v>41000000</v>
+      </c>
+      <c r="AW68" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT68" t="inlineStr">
+      <c r="AX68" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU68" t="inlineStr">
+      <c r="AY68" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '67', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '67', 'href': None}]</t>
         </is>
@@ -14011,7 +15237,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5d77ed79-565d-46c2-bc6a-2535cf4837ae</t>
+          <t>35d891f2-1f92-42ed-b02a-0ac30333cedf</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +15247,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +15260,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-5d77ed79565d46c2bc6a2535cf4837ae</t>
+          <t>https://www.notion.so/68-35d891f21f9242edb02a0ac30333cedf</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14188,15 +15414,33 @@
       </c>
       <c r="AS69" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU69" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW69" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT69" t="inlineStr">
+      <c r="AX69" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU69" t="inlineStr">
+      <c r="AY69" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '68', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '68', 'href': None}]</t>
         </is>
@@ -14210,7 +15454,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>e6730d11-380a-41bb-a8d5-8d3c50bd9222</t>
+          <t>5d77ed79-565d-46c2-bc6a-2535cf4837ae</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +15464,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +15477,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-e6730d11380a41bba8d58d3c50bd9222</t>
+          <t>https://www.notion.so/69-5d77ed79565d46c2bc6a2535cf4837ae</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14387,15 +15631,33 @@
       </c>
       <c r="AS70" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU70" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW70" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT70" t="inlineStr">
+      <c r="AX70" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU70" t="inlineStr">
+      <c r="AY70" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '69', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '69', 'href': None}]</t>
         </is>
@@ -14409,7 +15671,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>f1f89d36-3dfc-47f0-adc4-b7f4944a11b4</t>
+          <t>e6730d11-380a-41bb-a8d5-8d3c50bd9222</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +15681,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +15694,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-f1f89d363dfc47f0adc4b7f4944a11b4</t>
+          <t>https://www.notion.so/70-e6730d11380a41bba8d58d3c50bd9222</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14586,15 +15848,33 @@
       </c>
       <c r="AS71" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU71" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW71" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT71" t="inlineStr">
+      <c r="AX71" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU71" t="inlineStr">
+      <c r="AY71" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '70', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '70', 'href': None}]</t>
         </is>
@@ -14608,7 +15888,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4163582a-d393-4443-9921-faee57f55b8a</t>
+          <t>f1f89d36-3dfc-47f0-adc4-b7f4944a11b4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +15898,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +15911,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-4163582ad39344439921faee57f55b8a</t>
+          <t>https://www.notion.so/71-f1f89d363dfc47f0adc4b7f4944a11b4</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14785,15 +16065,33 @@
       </c>
       <c r="AS72" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU72" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV72" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="AW72" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT72" t="inlineStr">
+      <c r="AX72" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU72" t="inlineStr">
+      <c r="AY72" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '71', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '71', 'href': None}]</t>
         </is>
@@ -14807,7 +16105,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bedc4c40-3289-481a-a093-d1cd90e5032d</t>
+          <t>4163582a-d393-4443-9921-faee57f55b8a</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +16115,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +16128,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-bedc4c403289481aa093d1cd90e5032d</t>
+          <t>https://www.notion.so/72-4163582ad39344439921faee57f55b8a</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -14984,15 +16282,33 @@
       </c>
       <c r="AS73" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU73" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW73" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT73" t="inlineStr">
+      <c r="AX73" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU73" t="inlineStr">
+      <c r="AY73" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '72', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '72', 'href': None}]</t>
         </is>
@@ -15006,7 +16322,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>06a4d1f1-edf0-493f-ab60-8a5a0c455d04</t>
+          <t>bedc4c40-3289-481a-a093-d1cd90e5032d</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +16332,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +16345,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-06a4d1f1edf0493fab608a5a0c455d04</t>
+          <t>https://www.notion.so/73-bedc4c403289481aa093d1cd90e5032d</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15183,15 +16499,33 @@
       </c>
       <c r="AS74" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU74" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW74" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT74" t="inlineStr">
+      <c r="AX74" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU74" t="inlineStr">
+      <c r="AY74" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '73', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '73', 'href': None}]</t>
         </is>
@@ -15205,7 +16539,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>b2b51a2a-2ddf-4a49-b11a-7ffe4deed937</t>
+          <t>06a4d1f1-edf0-493f-ab60-8a5a0c455d04</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +16549,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +16562,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-b2b51a2a2ddf4a49b11a7ffe4deed937</t>
+          <t>https://www.notion.so/74-06a4d1f1edf0493fab608a5a0c455d04</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15382,15 +16716,33 @@
       </c>
       <c r="AS75" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU75" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV75" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AW75" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT75" t="inlineStr">
+      <c r="AX75" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU75" t="inlineStr">
+      <c r="AY75" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '74', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '74', 'href': None}]</t>
         </is>
@@ -15404,7 +16756,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>496173c5-f40f-43c0-ae34-76c5279256f8</t>
+          <t>b2b51a2a-2ddf-4a49-b11a-7ffe4deed937</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +16766,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +16779,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-496173c5f40f43c0ae3476c5279256f8</t>
+          <t>https://www.notion.so/75-b2b51a2a2ddf4a49b11a7ffe4deed937</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15581,15 +16933,33 @@
       </c>
       <c r="AS76" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU76" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV76" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="AW76" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT76" t="inlineStr">
+      <c r="AX76" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU76" t="inlineStr">
+      <c r="AY76" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '75', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '75', 'href': None}]</t>
         </is>
@@ -15603,7 +16973,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>d5e63696-3120-4f11-93e9-85e1408862a0</t>
+          <t>496173c5-f40f-43c0-ae34-76c5279256f8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +16983,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +16996,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-d5e6369631204f1193e985e1408862a0</t>
+          <t>https://www.notion.so/76-496173c5f40f43c0ae3476c5279256f8</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15780,15 +17150,33 @@
       </c>
       <c r="AS77" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU77" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW77" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT77" t="inlineStr">
+      <c r="AX77" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU77" t="inlineStr">
+      <c r="AY77" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '76', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '76', 'href': None}]</t>
         </is>
@@ -15802,7 +17190,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7cad04af-538e-4d13-a195-a2aef6732c19</t>
+          <t>d5e63696-3120-4f11-93e9-85e1408862a0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +17200,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +17213,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-7cad04af538e4d13a195a2aef6732c19</t>
+          <t>https://www.notion.so/77-d5e6369631204f1193e985e1408862a0</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -15979,15 +17367,33 @@
       </c>
       <c r="AS78" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU78" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV78" t="n">
+        <v>7400000</v>
+      </c>
+      <c r="AW78" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT78" t="inlineStr">
+      <c r="AX78" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU78" t="inlineStr">
+      <c r="AY78" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '77', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '77', 'href': None}]</t>
         </is>
@@ -16001,7 +17407,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>05c57336-b708-4d9b-8e6a-89b7b95be6b7</t>
+          <t>7cad04af-538e-4d13-a195-a2aef6732c19</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +17417,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +17430,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-05c57336b7084d9b8e6a89b7b95be6b7</t>
+          <t>https://www.notion.so/78-7cad04af538e4d13a195a2aef6732c19</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16178,15 +17584,33 @@
       </c>
       <c r="AS79" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU79" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW79" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT79" t="inlineStr">
+      <c r="AX79" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU79" t="inlineStr">
+      <c r="AY79" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '78', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '78', 'href': None}]</t>
         </is>
@@ -16200,7 +17624,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>843c0f3c-8123-433b-88b3-97d27986224f</t>
+          <t>05c57336-b708-4d9b-8e6a-89b7b95be6b7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +17634,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +17647,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-843c0f3c8123433b88b397d27986224f</t>
+          <t>https://www.notion.so/79-05c57336b7084d9b8e6a89b7b95be6b7</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16377,15 +17801,33 @@
       </c>
       <c r="AS80" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU80" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV80" t="n">
+        <v>8386000</v>
+      </c>
+      <c r="AW80" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT80" t="inlineStr">
+      <c r="AX80" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU80" t="inlineStr">
+      <c r="AY80" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '79', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '79', 'href': None}]</t>
         </is>
@@ -16399,7 +17841,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>862f1a06-2204-4195-90ec-cac4dc9face7</t>
+          <t>843c0f3c-8123-433b-88b3-97d27986224f</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +17851,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +17864,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-862f1a062204419590eccac4dc9face7</t>
+          <t>https://www.notion.so/80-843c0f3c8123433b88b397d27986224f</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16576,15 +18018,33 @@
       </c>
       <c r="AS81" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT81" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU81" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV81" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="AW81" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT81" t="inlineStr">
+      <c r="AX81" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU81" t="inlineStr">
+      <c r="AY81" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '80', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '80', 'href': None}]</t>
         </is>
@@ -16598,7 +18058,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>5a20033c-7b76-441e-a043-11a24bafe817</t>
+          <t>862f1a06-2204-4195-90ec-cac4dc9face7</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +18068,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +18081,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-5a20033c7b76441ea04311a24bafe817</t>
+          <t>https://www.notion.so/81-862f1a062204419590eccac4dc9face7</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16775,15 +18235,33 @@
       </c>
       <c r="AS82" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT82" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU82" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV82" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="AW82" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT82" t="inlineStr">
+      <c r="AX82" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU82" t="inlineStr">
+      <c r="AY82" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '81', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '81', 'href': None}]</t>
         </is>
@@ -16797,7 +18275,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4bb0f678-a35b-4cdf-aa60-42d5723edb56</t>
+          <t>5a20033c-7b76-441e-a043-11a24bafe817</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +18285,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +18298,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-4bb0f678a35b4cdfaa6042d5723edb56</t>
+          <t>https://www.notion.so/82-5a20033c7b76441ea04311a24bafe817</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16974,15 +18452,33 @@
       </c>
       <c r="AS83" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT83" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU83" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV83" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW83" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT83" t="inlineStr">
+      <c r="AX83" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU83" t="inlineStr">
+      <c r="AY83" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '82', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '82', 'href': None}]</t>
         </is>
@@ -16996,7 +18492,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8e1ea00e-bd3f-4195-917e-a4f95caeca3e</t>
+          <t>4bb0f678-a35b-4cdf-aa60-42d5723edb56</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +18502,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +18515,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-8e1ea00ebd3f4195917ea4f95caeca3e</t>
+          <t>https://www.notion.so/83-4bb0f678a35b4cdfaa6042d5723edb56</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17173,15 +18669,33 @@
       </c>
       <c r="AS84" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT84" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU84" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV84" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AW84" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT84" t="inlineStr">
+      <c r="AX84" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU84" t="inlineStr">
+      <c r="AY84" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '83', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '83', 'href': None}]</t>
         </is>
@@ -17195,7 +18709,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>26a7f7ee-02ed-4fb1-83c8-ec84258e73c1</t>
+          <t>8e1ea00e-bd3f-4195-917e-a4f95caeca3e</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +18719,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +18732,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-26a7f7ee02ed4fb183c8ec84258e73c1</t>
+          <t>https://www.notion.so/84-8e1ea00ebd3f4195917ea4f95caeca3e</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17372,15 +18886,33 @@
       </c>
       <c r="AS85" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT85" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU85" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV85" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AW85" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT85" t="inlineStr">
+      <c r="AX85" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU85" t="inlineStr">
+      <c r="AY85" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '84', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '84', 'href': None}]</t>
         </is>
@@ -17394,7 +18926,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>49be2302-44bd-4319-9dfd-ba3efecee188</t>
+          <t>26a7f7ee-02ed-4fb1-83c8-ec84258e73c1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +18936,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +18949,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-49be230244bd43199dfdba3efecee188</t>
+          <t>https://www.notion.so/85-26a7f7ee02ed4fb183c8ec84258e73c1</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17571,15 +19103,33 @@
       </c>
       <c r="AS86" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT86" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU86" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV86" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AW86" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT86" t="inlineStr">
+      <c r="AX86" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU86" t="inlineStr">
+      <c r="AY86" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '85', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '85', 'href': None}]</t>
         </is>
@@ -17593,17 +19143,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>e3d0e7f2-3a0f-4b21-854d-275f27645ccb</t>
+          <t>49be2302-44bd-4319-9dfd-ba3efecee188</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2024-06-24T17:11:00.000Z</t>
+          <t>2024-06-24T17:12:00.000Z</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +19166,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-e3d0e7f23a0f4b21854d275f27645ccb</t>
+          <t>https://www.notion.so/86-49be230244bd43199dfdba3efecee188</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17770,15 +19320,33 @@
       </c>
       <c r="AS87" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT87" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU87" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW87" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT87" t="inlineStr">
+      <c r="AX87" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU87" t="inlineStr">
+      <c r="AY87" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '86', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '86', 'href': None}]</t>
         </is>
@@ -17792,7 +19360,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>b39a1a5d-b3d2-4e1f-a621-4c7ef48fbd42</t>
+          <t>e3d0e7f2-3a0f-4b21-854d-275f27645ccb</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +19370,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +19383,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-b39a1a5db3d24e1fa6214c7ef48fbd42</t>
+          <t>https://www.notion.so/87-e3d0e7f23a0f4b21854d275f27645ccb</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17969,15 +19537,33 @@
       </c>
       <c r="AS88" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT88" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU88" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW88" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT88" t="inlineStr">
+      <c r="AX88" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU88" t="inlineStr">
+      <c r="AY88" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '87', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '87', 'href': None}]</t>
         </is>
@@ -17991,7 +19577,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>493985da-d6ad-4058-8b64-843eee3d8f2d</t>
+          <t>b39a1a5d-b3d2-4e1f-a621-4c7ef48fbd42</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +19587,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +19600,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-493985dad6ad40588b64843eee3d8f2d</t>
+          <t>https://www.notion.so/88-b39a1a5db3d24e1fa6214c7ef48fbd42</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18168,15 +19754,33 @@
       </c>
       <c r="AS89" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT89" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU89" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW89" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT89" t="inlineStr">
+      <c r="AX89" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU89" t="inlineStr">
+      <c r="AY89" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '88', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '88', 'href': None}]</t>
         </is>
@@ -18190,7 +19794,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>42672126-8639-4fad-a41f-20bcff3ce428</t>
+          <t>493985da-d6ad-4058-8b64-843eee3d8f2d</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +19804,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +19817,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-4267212686394fada41f20bcff3ce428</t>
+          <t>https://www.notion.so/89-493985dad6ad40588b64843eee3d8f2d</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18367,15 +19971,33 @@
       </c>
       <c r="AS90" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT90" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU90" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW90" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT90" t="inlineStr">
+      <c r="AX90" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU90" t="inlineStr">
+      <c r="AY90" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '89', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '89', 'href': None}]</t>
         </is>
@@ -18389,7 +20011,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>dac6c1eb-aeef-4eac-bee0-c1fde79f21b1</t>
+          <t>42672126-8639-4fad-a41f-20bcff3ce428</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +20021,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +20034,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-dac6c1ebaeef4eacbee0c1fde79f21b1</t>
+          <t>https://www.notion.so/90-4267212686394fada41f20bcff3ce428</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18566,15 +20188,33 @@
       </c>
       <c r="AS91" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT91" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU91" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW91" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT91" t="inlineStr">
+      <c r="AX91" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU91" t="inlineStr">
+      <c r="AY91" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '90', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '90', 'href': None}]</t>
         </is>
@@ -18588,7 +20228,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0c9dfa61-f5cc-4fb7-916d-03c4f3257b2c</t>
+          <t>dac6c1eb-aeef-4eac-bee0-c1fde79f21b1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +20238,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +20251,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-0c9dfa61f5cc4fb7916d03c4f3257b2c</t>
+          <t>https://www.notion.so/91-dac6c1ebaeef4eacbee0c1fde79f21b1</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18765,15 +20405,33 @@
       </c>
       <c r="AS92" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT92" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU92" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW92" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT92" t="inlineStr">
+      <c r="AX92" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU92" t="inlineStr">
+      <c r="AY92" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '91', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '91', 'href': None}]</t>
         </is>
@@ -18787,7 +20445,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>42241cf4-f792-4387-80e7-82225df7215f</t>
+          <t>0c9dfa61-f5cc-4fb7-916d-03c4f3257b2c</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +20455,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +20468,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-42241cf4f792438780e782225df7215f</t>
+          <t>https://www.notion.so/92-0c9dfa61f5cc4fb7916d03c4f3257b2c</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18964,15 +20622,33 @@
       </c>
       <c r="AS93" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT93" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU93" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW93" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT93" t="inlineStr">
+      <c r="AX93" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU93" t="inlineStr">
+      <c r="AY93" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '92', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '92', 'href': None}]</t>
         </is>
@@ -18986,7 +20662,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>d6f8d60a-4b22-4c98-be85-095455a283da</t>
+          <t>42241cf4-f792-4387-80e7-82225df7215f</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +20672,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +20685,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-d6f8d60a4b224c98be85095455a283da</t>
+          <t>https://www.notion.so/93-42241cf4f792438780e782225df7215f</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19163,15 +20839,33 @@
       </c>
       <c r="AS94" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT94" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU94" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW94" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT94" t="inlineStr">
+      <c r="AX94" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU94" t="inlineStr">
+      <c r="AY94" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '93', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '93', 'href': None}]</t>
         </is>
@@ -19185,7 +20879,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1c4ce883-3380-4268-89d2-0cb7795e63ba</t>
+          <t>d6f8d60a-4b22-4c98-be85-095455a283da</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +20889,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +20902,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-1c4ce8833380426889d20cb7795e63ba</t>
+          <t>https://www.notion.so/94-d6f8d60a4b224c98be85095455a283da</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19362,15 +21056,33 @@
       </c>
       <c r="AS95" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT95" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU95" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW95" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT95" t="inlineStr">
+      <c r="AX95" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU95" t="inlineStr">
+      <c r="AY95" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '94', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '94', 'href': None}]</t>
         </is>
@@ -19384,7 +21096,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>80a7d602-7106-441a-b801-b93fdaa517b1</t>
+          <t>1c4ce883-3380-4268-89d2-0cb7795e63ba</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +21106,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +21119,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-80a7d6027106441ab801b93fdaa517b1</t>
+          <t>https://www.notion.so/95-1c4ce8833380426889d20cb7795e63ba</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19561,15 +21273,33 @@
       </c>
       <c r="AS96" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT96" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU96" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW96" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT96" t="inlineStr">
+      <c r="AX96" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU96" t="inlineStr">
+      <c r="AY96" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '95', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '95', 'href': None}]</t>
         </is>
@@ -19583,7 +21313,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>a0b354b1-c1ed-42e6-9cdf-3648200eb567</t>
+          <t>80a7d602-7106-441a-b801-b93fdaa517b1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +21323,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +21336,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-a0b354b1c1ed42e69cdf3648200eb567</t>
+          <t>https://www.notion.so/96-80a7d6027106441ab801b93fdaa517b1</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19760,15 +21490,33 @@
       </c>
       <c r="AS97" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT97" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU97" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW97" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT97" t="inlineStr">
+      <c r="AX97" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU97" t="inlineStr">
+      <c r="AY97" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '96', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '96', 'href': None}]</t>
         </is>
@@ -19782,7 +21530,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ffd66113-90bc-4b60-a2a0-35b23d0683f6</t>
+          <t>a0b354b1-c1ed-42e6-9cdf-3648200eb567</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +21540,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +21553,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-ffd6611390bc4b60a2a035b23d0683f6</t>
+          <t>https://www.notion.so/97-a0b354b1c1ed42e69cdf3648200eb567</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19959,15 +21707,33 @@
       </c>
       <c r="AS98" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT98" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU98" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV98" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AW98" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT98" t="inlineStr">
+      <c r="AX98" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU98" t="inlineStr">
+      <c r="AY98" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '97', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '97', 'href': None}]</t>
         </is>
@@ -19981,7 +21747,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1a76f663-e849-4e18-90f6-4e2a6dde02fc</t>
+          <t>ffd66113-90bc-4b60-a2a0-35b23d0683f6</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +21757,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +21770,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-1a76f663e8494e1890f64e2a6dde02fc</t>
+          <t>https://www.notion.so/98-ffd6611390bc4b60a2a035b23d0683f6</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20158,15 +21924,33 @@
       </c>
       <c r="AS99" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT99" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU99" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV99" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AW99" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT99" t="inlineStr">
+      <c r="AX99" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU99" t="inlineStr">
+      <c r="AY99" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '98', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '98', 'href': None}]</t>
         </is>
@@ -20180,7 +21964,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>83559fb8-d2fe-48c8-8cdc-cae71e18a107</t>
+          <t>1a76f663-e849-4e18-90f6-4e2a6dde02fc</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +21974,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +21987,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-83559fb8d2fe48c88cdccae71e18a107</t>
+          <t>https://www.notion.so/99-1a76f663e8494e1890f64e2a6dde02fc</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20357,15 +22141,33 @@
       </c>
       <c r="AS100" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT100" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU100" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV100" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="AW100" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT100" t="inlineStr">
+      <c r="AX100" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU100" t="inlineStr">
+      <c r="AY100" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '99', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '99', 'href': None}]</t>
         </is>
@@ -20379,7 +22181,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>33d50674-8474-41c5-8386-a8ad4c4ab5de</t>
+          <t>83559fb8-d2fe-48c8-8cdc-cae71e18a107</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +22191,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +22204,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-33d50674847441c58386a8ad4c4ab5de</t>
+          <t>https://www.notion.so/100-83559fb8d2fe48c88cdccae71e18a107</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20556,15 +22358,33 @@
       </c>
       <c r="AS101" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT101" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU101" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW101" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT101" t="inlineStr">
+      <c r="AX101" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU101" t="inlineStr">
+      <c r="AY101" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '100', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '100', 'href': None}]</t>
         </is>
@@ -20578,7 +22398,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>37128e53-b773-4ea2-96bf-972affc6cc26</t>
+          <t>33d50674-8474-41c5-8386-a8ad4c4ab5de</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +22408,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +22421,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-37128e53b7734ea296bf972affc6cc26</t>
+          <t>https://www.notion.so/101-33d50674847441c58386a8ad4c4ab5de</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20755,15 +22575,33 @@
       </c>
       <c r="AS102" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT102" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU102" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV102" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="AW102" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT102" t="inlineStr">
+      <c r="AX102" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU102" t="inlineStr">
+      <c r="AY102" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '101', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '101', 'href': None}]</t>
         </is>
@@ -20777,7 +22615,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7253fb5a-bf33-4ccd-8fd0-91f4b9969ef6</t>
+          <t>37128e53-b773-4ea2-96bf-972affc6cc26</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +22625,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +22638,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-7253fb5abf334ccd8fd091f4b9969ef6</t>
+          <t>https://www.notion.so/102-37128e53b7734ea296bf972affc6cc26</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20954,15 +22792,33 @@
       </c>
       <c r="AS103" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT103" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU103" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV103" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="AW103" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT103" t="inlineStr">
+      <c r="AX103" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU103" t="inlineStr">
+      <c r="AY103" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '102', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '102', 'href': None}]</t>
         </is>
@@ -20976,7 +22832,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>e929925c-ebe4-4ca8-b41c-3de560b2837c</t>
+          <t>7253fb5a-bf33-4ccd-8fd0-91f4b9969ef6</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +22842,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +22855,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-e929925cebe44ca8b41c3de560b2837c</t>
+          <t>https://www.notion.so/103-7253fb5abf334ccd8fd091f4b9969ef6</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21106,7 +22962,7 @@
         </is>
       </c>
       <c r="AG104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH104" t="inlineStr">
         <is>
@@ -21153,15 +23009,33 @@
       </c>
       <c r="AS104" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT104" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU104" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV104" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="AW104" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT104" t="inlineStr">
+      <c r="AX104" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU104" t="inlineStr">
+      <c r="AY104" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '103', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '103', 'href': None}]</t>
         </is>
@@ -21175,7 +23049,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>9dab23a5-43ce-4360-ac1c-03a9c3e6ed32</t>
+          <t>e929925c-ebe4-4ca8-b41c-3de560b2837c</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +23059,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +23072,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-9dab23a543ce4360ac1c03a9c3e6ed32</t>
+          <t>https://www.notion.so/104-e929925cebe44ca8b41c3de560b2837c</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21352,15 +23226,33 @@
       </c>
       <c r="AS105" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT105" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU105" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV105" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="AW105" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT105" t="inlineStr">
+      <c r="AX105" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU105" t="inlineStr">
+      <c r="AY105" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '104', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '104', 'href': None}]</t>
         </is>
@@ -21374,7 +23266,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>6c863667-9f48-402b-8e54-f7a90e88236f</t>
+          <t>9dab23a5-43ce-4360-ac1c-03a9c3e6ed32</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +23276,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +23289,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-6c8636679f48402b8e54f7a90e88236f</t>
+          <t>https://www.notion.so/105-9dab23a543ce4360ac1c03a9c3e6ed32</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21551,15 +23443,33 @@
       </c>
       <c r="AS106" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT106" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU106" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV106" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AW106" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT106" t="inlineStr">
+      <c r="AX106" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU106" t="inlineStr">
+      <c r="AY106" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '105', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '105', 'href': None}]</t>
         </is>
@@ -21573,7 +23483,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>4d129591-2cfa-4125-9a26-bd0482773b60</t>
+          <t>6c863667-9f48-402b-8e54-f7a90e88236f</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +23493,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +23506,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-4d1295912cfa41259a26bd0482773b60</t>
+          <t>https://www.notion.so/106-6c8636679f48402b8e54f7a90e88236f</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21750,15 +23660,33 @@
       </c>
       <c r="AS107" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT107" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU107" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV107" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW107" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT107" t="inlineStr">
+      <c r="AX107" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU107" t="inlineStr">
+      <c r="AY107" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '106', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '106', 'href': None}]</t>
         </is>
@@ -21772,7 +23700,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>24fc52cb-6fb1-48a9-9009-773c42ccef04</t>
+          <t>4d129591-2cfa-4125-9a26-bd0482773b60</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +23710,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +23723,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-24fc52cb6fb148a99009773c42ccef04</t>
+          <t>https://www.notion.so/107-4d1295912cfa41259a26bd0482773b60</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21949,15 +23877,33 @@
       </c>
       <c r="AS108" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT108" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU108" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW108" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT108" t="inlineStr">
+      <c r="AX108" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU108" t="inlineStr">
+      <c r="AY108" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '107', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '107', 'href': None}]</t>
         </is>
@@ -21971,7 +23917,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2e8f6b21-caba-4b14-8110-c0ed9b2f93c8</t>
+          <t>24fc52cb-6fb1-48a9-9009-773c42ccef04</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +23927,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +23940,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-2e8f6b21caba4b148110c0ed9b2f93c8</t>
+          <t>https://www.notion.so/108-24fc52cb6fb148a99009773c42ccef04</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22148,15 +24094,33 @@
       </c>
       <c r="AS109" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT109" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU109" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV109" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW109" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT109" t="inlineStr">
+      <c r="AX109" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU109" t="inlineStr">
+      <c r="AY109" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '108', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '108', 'href': None}]</t>
         </is>
@@ -22170,7 +24134,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>efabbe44-5db8-4011-bb36-47628eaa630f</t>
+          <t>2e8f6b21-caba-4b14-8110-c0ed9b2f93c8</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +24144,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +24157,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-efabbe445db84011bb3647628eaa630f</t>
+          <t>https://www.notion.so/109-2e8f6b21caba4b148110c0ed9b2f93c8</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22347,15 +24311,33 @@
       </c>
       <c r="AS110" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT110" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU110" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV110" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="AW110" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT110" t="inlineStr">
+      <c r="AX110" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU110" t="inlineStr">
+      <c r="AY110" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '109', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '109', 'href': None}]</t>
         </is>
@@ -22369,7 +24351,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>06f63b1c-cbf4-4c5f-a3d1-29d7f16153a0</t>
+          <t>efabbe44-5db8-4011-bb36-47628eaa630f</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +24361,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +24374,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-06f63b1ccbf44c5fa3d129d7f16153a0</t>
+          <t>https://www.notion.so/110-efabbe445db84011bb3647628eaa630f</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22546,15 +24528,33 @@
       </c>
       <c r="AS111" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT111" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU111" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV111" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AW111" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT111" t="inlineStr">
+      <c r="AX111" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU111" t="inlineStr">
+      <c r="AY111" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '110', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '110', 'href': None}]</t>
         </is>
@@ -22568,7 +24568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>8b90e615-6115-4700-ba83-4432306a036c</t>
+          <t>06f63b1c-cbf4-4c5f-a3d1-29d7f16153a0</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +24578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +24591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-8b90e61561154700ba834432306a036c</t>
+          <t>https://www.notion.so/111-06f63b1ccbf44c5fa3d129d7f16153a0</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22745,15 +24745,33 @@
       </c>
       <c r="AS112" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT112" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU112" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV112" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="AW112" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT112" t="inlineStr">
+      <c r="AX112" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU112" t="inlineStr">
+      <c r="AY112" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '111', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '111', 'href': None}]</t>
         </is>
@@ -22767,7 +24785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>a19e566b-7859-4527-be9a-072bd8c05390</t>
+          <t>8b90e615-6115-4700-ba83-4432306a036c</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +24795,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +24808,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-a19e566b78594527be9a072bd8c05390</t>
+          <t>https://www.notion.so/112-8b90e61561154700ba834432306a036c</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22944,15 +24962,33 @@
       </c>
       <c r="AS113" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT113" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU113" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW113" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT113" t="inlineStr">
+      <c r="AX113" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU113" t="inlineStr">
+      <c r="AY113" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '112', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '112', 'href': None}]</t>
         </is>
@@ -22966,7 +25002,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>001d4caf-f4de-4678-b0f0-761c92275cf7</t>
+          <t>a19e566b-7859-4527-be9a-072bd8c05390</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +25012,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +25025,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-001d4caff4de4678b0f0761c92275cf7</t>
+          <t>https://www.notion.so/113-a19e566b78594527be9a072bd8c05390</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23143,15 +25179,33 @@
       </c>
       <c r="AS114" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT114" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU114" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW114" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT114" t="inlineStr">
+      <c r="AX114" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU114" t="inlineStr">
+      <c r="AY114" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '113', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '113', 'href': None}]</t>
         </is>
@@ -23165,7 +25219,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>d5f56ef4-f178-40b4-b16f-5c14ffe31e13</t>
+          <t>001d4caf-f4de-4678-b0f0-761c92275cf7</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +25229,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +25242,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-d5f56ef4f17840b4b16f5c14ffe31e13</t>
+          <t>https://www.notion.so/114-001d4caff4de4678b0f0761c92275cf7</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23342,15 +25396,33 @@
       </c>
       <c r="AS115" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT115" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU115" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW115" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT115" t="inlineStr">
+      <c r="AX115" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU115" t="inlineStr">
+      <c r="AY115" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '114', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '114', 'href': None}]</t>
         </is>
@@ -23364,7 +25436,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>e65b3e23-103d-478e-801a-bf7777c8f2eb</t>
+          <t>d5f56ef4-f178-40b4-b16f-5c14ffe31e13</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -23374,7 +25446,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23387,7 +25459,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-e65b3e23103d478e801abf7777c8f2eb</t>
+          <t>https://www.notion.so/115-d5f56ef4f17840b4b16f5c14ffe31e13</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -23541,15 +25613,33 @@
       </c>
       <c r="AS116" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT116" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU116" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW116" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT116" t="inlineStr">
+      <c r="AX116" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU116" t="inlineStr">
+      <c r="AY116" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '115', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '115', 'href': None}]</t>
         </is>
@@ -23563,7 +25653,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>caaed0bc-bfa5-4d55-8b43-ab30c77c1785</t>
+          <t>e65b3e23-103d-478e-801a-bf7777c8f2eb</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23573,7 +25663,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23586,7 +25676,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-caaed0bcbfa54d558b43ab30c77c1785</t>
+          <t>https://www.notion.so/116-e65b3e23103d478e801abf7777c8f2eb</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -23740,15 +25830,33 @@
       </c>
       <c r="AS117" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT117" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU117" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV117" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="AW117" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT117" t="inlineStr">
+      <c r="AX117" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU117" t="inlineStr">
+      <c r="AY117" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '116', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '116', 'href': None}]</t>
         </is>
@@ -23762,7 +25870,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>822dc4c7-461a-4244-b0c0-4864e890788b</t>
+          <t>caaed0bc-bfa5-4d55-8b43-ab30c77c1785</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -23772,7 +25880,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23785,7 +25893,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-822dc4c7461a4244b0c04864e890788b</t>
+          <t>https://www.notion.so/117-caaed0bcbfa54d558b43ab30c77c1785</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -23939,15 +26047,33 @@
       </c>
       <c r="AS118" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT118" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU118" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW118" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT118" t="inlineStr">
+      <c r="AX118" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU118" t="inlineStr">
+      <c r="AY118" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '117', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '117', 'href': None}]</t>
         </is>
@@ -23961,7 +26087,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>9dc50016-75f8-4ebb-becc-f7c19023df88</t>
+          <t>822dc4c7-461a-4244-b0c0-4864e890788b</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -23971,7 +26097,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -23984,7 +26110,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.notion.so/118-9dc5001675f84ebbbeccf7c19023df88</t>
+          <t>https://www.notion.so/118-822dc4c7461a4244b0c04864e890788b</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -24138,15 +26264,33 @@
       </c>
       <c r="AS119" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT119" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU119" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW119" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT119" t="inlineStr">
+      <c r="AX119" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU119" t="inlineStr">
+      <c r="AY119" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '118', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '118', 'href': None}]</t>
         </is>
@@ -24160,7 +26304,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>46b797ad-bc4f-4f9e-8fc1-10fb45a779b0</t>
+          <t>9dc50016-75f8-4ebb-becc-f7c19023df88</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -24170,7 +26314,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24183,7 +26327,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.notion.so/119-46b797adbc4f4f9e8fc110fb45a779b0</t>
+          <t>https://www.notion.so/119-9dc5001675f84ebbbeccf7c19023df88</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -24337,15 +26481,33 @@
       </c>
       <c r="AS120" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT120" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU120" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV120" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AW120" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT120" t="inlineStr">
+      <c r="AX120" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU120" t="inlineStr">
+      <c r="AY120" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '119', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '119', 'href': None}]</t>
         </is>
@@ -24359,7 +26521,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>60f8a8d9-03b1-4152-83a7-76617f1fae5f</t>
+          <t>46b797ad-bc4f-4f9e-8fc1-10fb45a779b0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -24369,7 +26531,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24382,7 +26544,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.notion.so/120-60f8a8d903b1415283a776617f1fae5f</t>
+          <t>https://www.notion.so/120-46b797adbc4f4f9e8fc110fb45a779b0</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -24536,15 +26698,33 @@
       </c>
       <c r="AS121" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT121" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU121" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV121" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="AW121" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT121" t="inlineStr">
+      <c r="AX121" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU121" t="inlineStr">
+      <c r="AY121" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '120', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '120', 'href': None}]</t>
         </is>
@@ -24558,7 +26738,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>bd97bf52-0298-4456-840b-fc17fd7cc090</t>
+          <t>60f8a8d9-03b1-4152-83a7-76617f1fae5f</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -24568,7 +26748,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24581,7 +26761,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.notion.so/121-bd97bf5202984456840bfc17fd7cc090</t>
+          <t>https://www.notion.so/121-60f8a8d903b1415283a776617f1fae5f</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -24735,15 +26915,33 @@
       </c>
       <c r="AS122" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT122" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU122" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV122" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW122" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT122" t="inlineStr">
+      <c r="AX122" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU122" t="inlineStr">
+      <c r="AY122" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '121', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '121', 'href': None}]</t>
         </is>
@@ -24757,7 +26955,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>e9eab0ae-4c99-4f20-83fc-0413a44eef94</t>
+          <t>bd97bf52-0298-4456-840b-fc17fd7cc090</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -24767,7 +26965,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24780,7 +26978,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.notion.so/122-e9eab0ae4c994f2083fc0413a44eef94</t>
+          <t>https://www.notion.so/122-bd97bf5202984456840bfc17fd7cc090</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -24934,15 +27132,33 @@
       </c>
       <c r="AS123" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT123" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU123" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW123" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT123" t="inlineStr">
+      <c r="AX123" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU123" t="inlineStr">
+      <c r="AY123" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '122', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '122', 'href': None}]</t>
         </is>
@@ -24956,7 +27172,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1fd0bde0-9f87-405a-9030-94f43b6bc03f</t>
+          <t>e9eab0ae-4c99-4f20-83fc-0413a44eef94</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -24966,7 +27182,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -24979,7 +27195,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.notion.so/123-1fd0bde09f87405a903094f43b6bc03f</t>
+          <t>https://www.notion.so/123-e9eab0ae4c994f2083fc0413a44eef94</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -25133,15 +27349,33 @@
       </c>
       <c r="AS124" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT124" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU124" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW124" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT124" t="inlineStr">
+      <c r="AX124" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU124" t="inlineStr">
+      <c r="AY124" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '123', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '123', 'href': None}]</t>
         </is>
@@ -25155,7 +27389,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>451bd443-b279-4077-906c-83cd770bc69c</t>
+          <t>1fd0bde0-9f87-405a-9030-94f43b6bc03f</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -25165,7 +27399,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25178,7 +27412,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.notion.so/124-451bd443b2794077906c83cd770bc69c</t>
+          <t>https://www.notion.so/124-1fd0bde09f87405a903094f43b6bc03f</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -25332,15 +27566,33 @@
       </c>
       <c r="AS125" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT125" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU125" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW125" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT125" t="inlineStr">
+      <c r="AX125" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU125" t="inlineStr">
+      <c r="AY125" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '124', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '124', 'href': None}]</t>
         </is>
@@ -25354,7 +27606,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>e834216e-5a34-4f07-8fbd-ca240ac98d06</t>
+          <t>451bd443-b279-4077-906c-83cd770bc69c</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -25364,7 +27616,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25377,7 +27629,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.notion.so/125-e834216e5a344f078fbdca240ac98d06</t>
+          <t>https://www.notion.so/125-451bd443b2794077906c83cd770bc69c</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -25531,15 +27783,33 @@
       </c>
       <c r="AS126" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT126" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU126" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV126" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AW126" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT126" t="inlineStr">
+      <c r="AX126" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU126" t="inlineStr">
+      <c r="AY126" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '125', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '125', 'href': None}]</t>
         </is>
@@ -25553,7 +27823,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>f06b3d94-a638-4428-86ad-50c833ddcd28</t>
+          <t>e834216e-5a34-4f07-8fbd-ca240ac98d06</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -25563,7 +27833,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25576,7 +27846,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.notion.so/126-f06b3d94a638442886ad50c833ddcd28</t>
+          <t>https://www.notion.so/126-e834216e5a344f078fbdca240ac98d06</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -25730,15 +28000,33 @@
       </c>
       <c r="AS127" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT127" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU127" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW127" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT127" t="inlineStr">
+      <c r="AX127" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU127" t="inlineStr">
+      <c r="AY127" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '126', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '126', 'href': None}]</t>
         </is>
@@ -25752,7 +28040,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>9e02ba25-75bb-4b31-9f89-87b23344eb27</t>
+          <t>f06b3d94-a638-4428-86ad-50c833ddcd28</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -25762,7 +28050,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -25775,7 +28063,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.notion.so/127-9e02ba2575bb4b319f8987b23344eb27</t>
+          <t>https://www.notion.so/127-f06b3d94a638442886ad50c833ddcd28</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -25929,15 +28217,33 @@
       </c>
       <c r="AS128" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT128" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU128" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV128" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AW128" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT128" t="inlineStr">
+      <c r="AX128" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU128" t="inlineStr">
+      <c r="AY128" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '127', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '127', 'href': None}]</t>
         </is>
@@ -25951,7 +28257,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>fcbc1dcc-f4d6-46b4-a297-d9ca776b5fc2</t>
+          <t>9e02ba25-75bb-4b31-9f89-87b23344eb27</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -25961,7 +28267,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -25974,7 +28280,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.notion.so/128-fcbc1dccf4d646b4a297d9ca776b5fc2</t>
+          <t>https://www.notion.so/128-9e02ba2575bb4b319f8987b23344eb27</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -26128,15 +28434,33 @@
       </c>
       <c r="AS129" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT129" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU129" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW129" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT129" t="inlineStr">
+      <c r="AX129" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU129" t="inlineStr">
+      <c r="AY129" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '128', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '128', 'href': None}]</t>
         </is>
@@ -26150,7 +28474,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>afb8c925-ce16-4258-898b-9c4e9a557d0d</t>
+          <t>fcbc1dcc-f4d6-46b4-a297-d9ca776b5fc2</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -26160,7 +28484,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -26173,7 +28497,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.notion.so/129-afb8c925ce164258898b9c4e9a557d0d</t>
+          <t>https://www.notion.so/129-fcbc1dccf4d646b4a297d9ca776b5fc2</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -26327,15 +28651,33 @@
       </c>
       <c r="AS130" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT130" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU130" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW130" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT130" t="inlineStr">
+      <c r="AX130" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU130" t="inlineStr">
+      <c r="AY130" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '129', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '129', 'href': None}]</t>
         </is>
@@ -26349,7 +28691,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1a038cb7-de3f-47e8-adff-6dc4867ab197</t>
+          <t>afb8c925-ce16-4258-898b-9c4e9a557d0d</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -26359,7 +28701,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -26372,7 +28714,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.notion.so/130-1a038cb7de3f47e8adff6dc4867ab197</t>
+          <t>https://www.notion.so/130-afb8c925ce164258898b9c4e9a557d0d</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -26526,15 +28868,33 @@
       </c>
       <c r="AS131" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT131" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU131" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW131" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT131" t="inlineStr">
+      <c r="AX131" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU131" t="inlineStr">
+      <c r="AY131" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '130', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '130', 'href': None}]</t>
         </is>
@@ -26548,7 +28908,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>fb6d55d5-a1f5-4598-8acc-2b0c2bf0f78a</t>
+          <t>1a038cb7-de3f-47e8-adff-6dc4867ab197</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -26558,7 +28918,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -26571,7 +28931,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.notion.so/131-fb6d55d5a1f545988acc2b0c2bf0f78a</t>
+          <t>https://www.notion.so/131-1a038cb7de3f47e8adff6dc4867ab197</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -26725,15 +29085,33 @@
       </c>
       <c r="AS132" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT132" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU132" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW132" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT132" t="inlineStr">
+      <c r="AX132" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU132" t="inlineStr">
+      <c r="AY132" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '131', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '131', 'href': None}]</t>
         </is>
@@ -26747,7 +29125,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>867d7647-b7a8-43c1-86d4-b05228499271</t>
+          <t>fb6d55d5-a1f5-4598-8acc-2b0c2bf0f78a</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -26757,7 +29135,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2024-06-30T15:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -26770,7 +29148,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://www.notion.so/132-867d7647b7a843c186d4b05228499271</t>
+          <t>https://www.notion.so/132-fb6d55d5a1f545988acc2b0c2bf0f78a</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -26815,7 +29193,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>53346000</v>
+        <v>54346000</v>
       </c>
       <c r="T133" t="inlineStr">
         <is>
@@ -26833,7 +29211,7 @@
         </is>
       </c>
       <c r="W133" t="n">
-        <v>35004000</v>
+        <v>34004000</v>
       </c>
       <c r="X133" t="inlineStr">
         <is>
@@ -26924,17 +29302,252 @@
       </c>
       <c r="AS133" t="inlineStr">
         <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT133" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV133" t="n">
+        <v>43600000</v>
+      </c>
+      <c r="AW133" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT133" t="inlineStr">
+      <c r="AX133" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU133" t="inlineStr">
+      <c r="AY133" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '132', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '132', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>867d7647-b7a8-43c1-86d4-b05228499271</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2024-06-24T17:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2024-07-01T14:25:00.000Z</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/133-867d7647b7a843c186d4b05228499271</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>88e410cc-a410-4367-aad5-55987f9467f7</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S134" t="n">
+        <v>6800000</v>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W134" t="n">
+        <v>-3800000</v>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>Uc%3A%5E</t>
+        </is>
+      </c>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA134" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC134" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD134" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AE134" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF134" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH134" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI134" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ134" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="AK134" t="inlineStr"/>
+      <c r="AL134" t="inlineStr"/>
+      <c r="AM134" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN134" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP134" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ134" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR134" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AS134" t="inlineStr">
+        <is>
+          <t>pOIL</t>
+        </is>
+      </c>
+      <c r="AT134" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AU134" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AV134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW134" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AX134" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AY134" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '133', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '133', 'href': None}]</t>
         </is>
       </c>
     </row>
